--- a/biology/Botanique/Sagotia/Sagotia.xlsx
+++ b/biology/Botanique/Sagotia/Sagotia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sagotia est un genre végétal de la famille des Euphorbiaceae, comportant 2 espèces, et dont l'espèce type est Sagotia racemosa Baill..
 Le nom Sagotia rend hommage à Paul Antoine Sagot (1821-1888), botaniste, agronome et explorateur français, qui travailla beaucoup sur la Guyane.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Sagotia correspond à des arbres, dépourvus de latex, avec des poils simples. 
 Les feuilles sont simples, alternes, dépourvues de glandes.
@@ -523,7 +537,7 @@
 Dans le cas des plantes monoïques, les fleurs sont unisexuées. 
 Les fleurs staminées (mâles ♂) comportent 5 sépales imbriqués et arrondis, 5 pétales arrondis, 20-40 étamines libres, et sont dépourvues de disque nectarifère ou de pistillode.
 Les fleurs pistillées (femelles ♀) comportent 5 grands sépales, sont dépourvues de pétales, de disque nectarifère. L'ovaire comporte 3 styles libres et profondément bifide, et contiennent 3 loges avec 1 ovule par loge. 
-Le fruit est une capsule, sous-tendue par des sépales persistants et élargis, et contient 3 graines caronculées[1].
+Le fruit est une capsule, sous-tendue par des sépales persistants et élargis, et contient 3 graines caronculées.
 </t>
         </is>
       </c>
@@ -552,9 +566,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Flora Online (WFO)       (04 janvier 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (04 janvier 2022) :
 Sagotia brachysepala (Müll.Arg.) Secco
 Sagotia racemosa Baill.
 </t>
@@ -585,9 +601,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 1860, le botaniste Baillon propose le protologue suivant[3] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 1860, le botaniste Baillon propose le protologue suivant : 
 « III. SAGOTIA.
 Flores monœci,
 Flos masculus : Calyx profunde 5-partitus, laciniis inæqualius; præfloratione imbricata. Petala 5 calycis laciniis alterna, præfloratione imbricata. Stamina numerosa, filamentis brevibus receptaculo convexo insertis, in alabastro erectis ; antheris introrsis, 2-locularibus, longitudine dehiscentibus.
